--- a/assessment-data/Dados.xlsx
+++ b/assessment-data/Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects-Mestrado\sample\assessment-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8227190-AFE8-4D05-A036-975BCE44B253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF00DB1-7D69-4197-8516-E81F37EC7382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{9A545A00-4E6E-4670-843B-8A547C2EF924}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="12" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -811,7 +811,184 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="77">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -828,6 +1005,78 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <fgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
@@ -949,6 +1198,34 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1097,7 +1374,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="45376.527854745371" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{BB94BCED-0EED-4FA3-B768-059DA8E77F9C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="45376.90828541667" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{BB94BCED-0EED-4FA3-B768-059DA8E77F9C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N31" sheet="Avaliação por Tipo de Ref."/>
   </cacheSource>
@@ -1546,7 +1823,7 @@
     <s v="Vide commits"/>
     <s v="Vide commits"/>
     <s v="Not Changed Behavior"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -1578,7 +1855,7 @@
     <s v="Vide commits"/>
     <s v="Vide commits"/>
     <s v="Not Changed Behavior"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -1665,7 +1942,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F614FAE5-0CB0-47D9-8502-503333F55A20}" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F614FAE5-0CB0-47D9-8502-503333F55A20}" name="Tabela dinâmica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D5:G25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -1798,8 +2075,8 @@
   <dataFields count="1">
     <dataField name="Contagem de #" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="20">
-    <format dxfId="37">
+  <formats count="29">
+    <format dxfId="76">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -1814,7 +2091,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -1822,6 +2099,276 @@
           </reference>
           <reference field="3" count="1">
             <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="74">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="5"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="73">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="72">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="71">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="70">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="11"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="69">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="68">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="5">
+            <x v="1"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="13"/>
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="67">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="5">
+            <x v="1"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="13"/>
+            <x v="14"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="3"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="64">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="2">
+            <x v="6"/>
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="2">
+            <x v="6"/>
+            <x v="10"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="61">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="0"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="2">
+            <x v="4"/>
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="2">
+            <x v="4"/>
+            <x v="9"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="58">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="10"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -1830,25 +2377,28 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
             <x v="1"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="5"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="34">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
           <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
             <x v="1"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -1860,223 +2410,71 @@
             <x v="2"/>
           </reference>
           <reference field="3" count="1">
-            <x v="2"/>
+            <x v="11"/>
           </reference>
           <reference field="12" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="3" count="1">
-            <x v="2"/>
-          </reference>
+            <x v="6"/>
+          </reference>
+          <reference field="12" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="11"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="29">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="5">
-            <x v="1"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="13"/>
-            <x v="14"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="28">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="5">
-            <x v="1"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="13"/>
-            <x v="14"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="27">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
             <x v="1"/>
           </reference>
           <reference field="3" count="1">
-            <x v="3"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="3"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="25">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="3" count="2">
+          <reference field="3" count="1">
             <x v="6"/>
-            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="2">
-            <x v="6"/>
-            <x v="10"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="23">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="3" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="22">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="21">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="3" count="2">
-            <x v="4"/>
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="20">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="3" count="2">
-            <x v="4"/>
-            <x v="9"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
+            <x v="12"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="1">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="10"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
             <x v="1"/>
           </reference>
           <reference field="3" count="1">
-            <x v="10"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -2414,10 +2812,10 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N30" sqref="A29:N30"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3281,7 +3679,7 @@
         <v>56</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N24" s="9"/>
     </row>
@@ -3351,7 +3749,7 @@
         <v>56</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N26" s="9"/>
     </row>
@@ -3545,7 +3943,7 @@
   <dimension ref="D5:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3657,10 +4055,10 @@
         <v>23</v>
       </c>
       <c r="E13" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" s="22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13" s="22">
         <v>10</v>
@@ -3679,14 +4077,12 @@
       </c>
     </row>
     <row r="15" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="23">
-        <v>1</v>
-      </c>
-      <c r="F15" s="22">
-        <v>1</v>
+      <c r="E15" s="22"/>
+      <c r="F15" s="24">
+        <v>2</v>
       </c>
       <c r="G15" s="22">
         <v>2</v>
@@ -3719,14 +4115,12 @@
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="23">
-        <v>1</v>
-      </c>
-      <c r="F18" s="22">
-        <v>1</v>
+      <c r="E18" s="22"/>
+      <c r="F18" s="24">
+        <v>2</v>
       </c>
       <c r="G18" s="22">
         <v>2</v>
@@ -3765,7 +4159,7 @@
       <c r="E21" s="23">
         <v>1</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="24">
         <v>1</v>
       </c>
       <c r="G21" s="22">
@@ -3803,7 +4197,7 @@
       <c r="E24" s="23">
         <v>1</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="24">
         <v>1</v>
       </c>
       <c r="G24" s="22">
@@ -3815,10 +4209,10 @@
         <v>38</v>
       </c>
       <c r="E25" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F25" s="22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G25" s="22">
         <v>30</v>

--- a/assessment-data/Dados.xlsx
+++ b/assessment-data/Dados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects-Mestrado\sample\assessment-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF00DB1-7D69-4197-8516-E81F37EC7382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A906EAA-E9C9-4401-95A5-7EA9CDCEFE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{9A545A00-4E6E-4670-843B-8A547C2EF924}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="13" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="88">
   <si>
     <t>Project Name</t>
   </si>
@@ -647,6 +647,106 @@
   <si>
     <t>Vide commits</t>
   </si>
+  <si>
+    <t>16A</t>
+  </si>
+  <si>
+    <t>TSR Catalog</t>
+  </si>
+  <si>
+    <t>Surround assertions with assertAll method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	'@SuppressWarnings("deprecation")
+	@Test
+    public void testAddDeposit() throws Exception {        
+		InternationalAccount account = new InternationalAccount(0, "USA", "USD");
+        assertEquals(0, account.getDeposits().size());
+		Deposit deposit = new Deposit(account, 100.0, new Date(2024, 3, 19));
+        account.addDeposit(deposit);
+        assertEquals(1, account.getDeposits().size());
+        assertEquals(deposit, account.getDeposits().get(0));
+    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	@SuppressWarnings("deprecation")
+	@Test
+    public void testAddDeposit() throws Exception {        
+		InternationalAccount account = new InternationalAccount(0, "USA", "USD");
+        assertEquals(0, account.getDeposits().size());
+		Deposit deposit = new Deposit(account, 100.0, new Date(2024, 3, 19));
+        account.addDeposit(deposit);
+        assertAll("Adding deposit and checking size and object", 
+        		() -&gt; assertEquals(1, account.getDeposits().size()),
+        		() -&gt; assertEquals(deposit, account.getDeposits().get(0)));
+    }</t>
+  </si>
+  <si>
+    <t>16B</t>
+  </si>
+  <si>
+    <t>@SuppressWarnings("deprecation")
+	@Test
+    public void testAddDeposit() throws Exception {        
+		InternationalAccount account = new InternationalAccount(0, "USA", "USD");
+        assertEquals(0, account.getDeposits().size());
+		Deposit deposit = new Deposit(account, 100.0, new Date(2024, 3, 19));
+        account.addDeposit(deposit);
+        assertAll("Adding deposit and checking size and object", 
+        		() -&gt; assertEquals(account.getDeposits().size(), account.getDeposits().size()),
+        		() -&gt; assertEquals(deposit, deposit));
+    }</t>
+  </si>
+  <si>
+    <t>17A</t>
+  </si>
+  <si>
+    <t>Replace the try/catch, @Test expected and @Rule annotations with the assertThrows method</t>
+  </si>
+  <si>
+    <t>@Test
+	public void testNegativeDeposit() {
+		try {
+			InternationalAccount account = new InternationalAccount(1000, "USA", "USD");
+	        assertEquals(0, account.getDeposits().size());
+			Deposit deposit = new Deposit(account, -100.0, new Date(2024, 3, 19));
+			fail("Deposit must be positive!");
+		} catch (BusinessRuleException businessRuleException) {
+			// Ok
+		} catch (Exception exception) {
+			fail("Exception invalid");
+		}
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	@Test
+	public void testNegativeDeposit() {
+		InternationalAccount account = new InternationalAccount(1000, "USA", "USD");
+		    assertEquals(0, account.getDeposits().size());
+	    // Em vez de try-catch, utilize assertThrows
+	    assertThrowsExactly(BusinessRuleException.class, () -&gt; {
+	        new Deposit(account, -100.0, new Date(2024, 3, 19));
+	    });
+	}</t>
+  </si>
+  <si>
+    <t>17B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	@Test
+	public void testNegativeDeposit() throws Exception {
+		InternationalAccount account = new InternationalAccount(1000, "USA", "USD");
+		    assertEquals(0, account.getDeposits().size());
+	    // Em vez de try-catch, utilize assertThrows
+	    assertThrowsExactly(BusinessRuleException.class, () -&gt; {
+	    	throw new BusinessRuleException();
+	    });
+	    try {
+	    	new Deposit(account, -100.0, new Date(2024, 3, 19));
+	    } catch (Exception e) {
+	    }
+	}</t>
+  </si>
 </sst>
 </file>
 
@@ -684,7 +784,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,6 +815,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -743,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -807,11 +919,207 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="88">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -830,6 +1138,197 @@
     <dxf>
       <fill>
         <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <fgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -845,6 +1344,30 @@
     <dxf>
       <fill>
         <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <fgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -866,140 +1389,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1013,7 +1404,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1021,197 +1412,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1374,26 +1574,27 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="45376.90828541667" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{BB94BCED-0EED-4FA3-B768-059DA8E77F9C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="45396.010507060186" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{B74F229F-55E9-4605-ABB1-A0C3D34312D4}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:N31" sheet="Avaliação por Tipo de Ref."/>
+    <worksheetSource ref="A1:N35" sheet="Avaliação por Tipo de Ref."/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="Test" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="16"/>
     </cacheField>
     <cacheField name="#" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Refactoring Escope" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems count="4">
         <s v="Refatoração Interna do Método"/>
         <s v="Refatoração de Uma Classe de Testes"/>
         <s v="Refatoração Estrutural de Classe de Testes"/>
+        <s v="TSR Catalog"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Valid Refactoring Type" numFmtId="0">
-      <sharedItems count="15">
+      <sharedItems count="17">
         <s v="Adicionar explicação à asserção."/>
         <s v="Criar método de igualdade."/>
         <s v="Simplificar cenário de uso."/>
@@ -1409,6 +1610,8 @@
         <s v="Descer teste na hierarquia"/>
         <s v="Criar teste modelo para funções abstratas"/>
         <s v="Separar teste de classe agregada"/>
+        <s v="Surround assertions with assertAll method"/>
+        <s v="Replace the try/catch, @Test expected and @Rule annotations with the assertThrows method"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Test Type" numFmtId="0">
@@ -1436,12 +1639,9 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Result" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems count="2">
         <s v="OK"/>
         <s v="NOK"/>
-        <m u="1"/>
-        <s v="Vide 6A" u="1"/>
-        <s v="Vide 6B" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Observações" numFmtId="0">
@@ -1457,7 +1657,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="30">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="34">
   <r>
     <n v="1"/>
     <s v="1A"/>
@@ -1938,25 +2138,90 @@
     <x v="0"/>
     <m/>
   </r>
+  <r>
+    <n v="16"/>
+    <s v="16A"/>
+    <x v="3"/>
+    <x v="15"/>
+    <s v="Positivo"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="_x0009_'@SuppressWarnings(&quot;deprecation&quot;)_x000a__x0009_@Test_x000a_    public void testAddDeposit() throws Exception {        _x000a__x0009__x0009_InternationalAccount account = new InternationalAccount(0, &quot;USA&quot;, &quot;USD&quot;);_x000a_        assertEquals(0, account.getDeposits().size());_x000a__x0009__x0009_Deposit deposit = new Deposit(account, 100.0, new Date(2024, 3, 19));_x000a_        account.addDeposit(deposit);_x000a_        assertEquals(1, account.getDeposits().size());_x000a_        assertEquals(deposit, account.getDeposits().get(0));_x000a_    }"/>
+    <s v="_x0009_@SuppressWarnings(&quot;deprecation&quot;)_x000a__x0009_@Test_x000a_    public void testAddDeposit() throws Exception {        _x000a__x0009__x0009_InternationalAccount account = new InternationalAccount(0, &quot;USA&quot;, &quot;USD&quot;);_x000a_        assertEquals(0, account.getDeposits().size());_x000a__x0009__x0009_Deposit deposit = new Deposit(account, 100.0, new Date(2024, 3, 19));_x000a_        account.addDeposit(deposit);_x000a_        _x000a_        assertAll(&quot;Adding deposit and checking size and object&quot;, _x000a_        _x0009__x0009_() -&gt; assertEquals(1, account.getDeposits().size()),_x000a_        _x0009__x0009_() -&gt; assertEquals(deposit, account.getDeposits().get(0)));_x000a_    }"/>
+    <s v="Not Changed Behavior"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="16B"/>
+    <x v="3"/>
+    <x v="15"/>
+    <s v="Positivo"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="_x0009_@SuppressWarnings(&quot;deprecation&quot;)_x000a__x0009_@Test_x000a_    public void testAddDeposit() throws Exception {        _x000a__x0009__x0009_InternationalAccount account = new InternationalAccount(0, &quot;USA&quot;, &quot;USD&quot;);_x000a_        assertEquals(0, account.getDeposits().size());_x000a__x0009__x0009_Deposit deposit = new Deposit(account, 100.0, new Date(2024, 3, 19));_x000a_        account.addDeposit(deposit);_x000a_        _x000a_        assertAll(&quot;Adding deposit and checking size and object&quot;, _x000a_        _x0009__x0009_() -&gt; assertEquals(1, account.getDeposits().size()),_x000a_        _x0009__x0009_() -&gt; assertEquals(deposit, account.getDeposits().get(0)));_x000a_    }"/>
+    <s v="@SuppressWarnings(&quot;deprecation&quot;)_x000a__x0009_@Test_x000a_    public void testAddDeposit() throws Exception {        _x000a__x0009__x0009_InternationalAccount account = new InternationalAccount(0, &quot;USA&quot;, &quot;USD&quot;);_x000a_        assertEquals(0, account.getDeposits().size());_x000a__x0009__x0009_Deposit deposit = new Deposit(account, 100.0, new Date(2024, 3, 19));_x000a_        account.addDeposit(deposit);_x000a_        _x000a_        assertAll(&quot;Adding deposit and checking size and object&quot;, _x000a_        _x0009__x0009_() -&gt; assertEquals(account.getDeposits().size(), account.getDeposits().size()),_x000a_        _x0009__x0009_() -&gt; assertEquals(deposit, deposit));_x000a_    }"/>
+    <s v="Changed Behavior"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="17A"/>
+    <x v="3"/>
+    <x v="16"/>
+    <s v="Positivo"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="@Test_x000a__x0009_public void testNegativeDeposit() {_x000a__x0009__x0009_try {_x000a__x0009__x0009__x0009_InternationalAccount account = new InternationalAccount(1000, &quot;USA&quot;, &quot;USD&quot;);_x000a__x0009_        assertEquals(0, account.getDeposits().size());_x000a__x0009__x0009__x0009_Deposit deposit = new Deposit(account, -100.0, new Date(2024, 3, 19));_x000a__x0009__x0009__x0009_fail(&quot;Deposit must be positive!&quot;);_x000a__x0009__x0009_} catch (BusinessRuleException businessRuleException) {_x000a__x0009__x0009__x0009_// Ok_x000a__x0009__x0009_} catch (Exception exception) {_x000a__x0009__x0009__x0009_fail(&quot;Exception invalid&quot;);_x000a__x0009__x0009_}_x000a__x0009_}"/>
+    <s v="_x0009_@Test_x000a__x0009_public void testNegativeDeposit() {_x000a__x0009__x0009_InternationalAccount account = new InternationalAccount(1000, &quot;USA&quot;, &quot;USD&quot;);_x000a__x0009__x0009_    assertEquals(0, account.getDeposits().size());_x000a__x0009__x0009_    _x000a__x0009_    // Em vez de try-catch, utilize assertThrows_x000a__x0009_    assertThrowsExactly(BusinessRuleException.class, () -&gt; {_x000a__x0009_        new Deposit(account, -100.0, new Date(2024, 3, 19));_x000a__x0009_    });_x000a__x0009_}"/>
+    <s v="Not Changed Behavior"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="17B"/>
+    <x v="3"/>
+    <x v="16"/>
+    <s v="Positivo"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="_x0009_@Test_x000a__x0009_public void testNegativeDeposit() {_x000a__x0009__x0009_InternationalAccount account = new InternationalAccount(1000, &quot;USA&quot;, &quot;USD&quot;);_x000a__x0009__x0009_    assertEquals(0, account.getDeposits().size());_x000a__x0009__x0009_    _x000a__x0009_    // Em vez de try-catch, utilize assertThrows_x000a__x0009_    assertThrowsExactly(BusinessRuleException.class, () -&gt; {_x000a__x0009_        new Deposit(account, -100.0, new Date(2024, 3, 19));_x000a__x0009_    });_x000a__x0009_}"/>
+    <s v="_x0009_@Test_x000a__x0009_public void testNegativeDeposit() throws Exception {_x000a__x0009__x0009_InternationalAccount account = new InternationalAccount(1000, &quot;USA&quot;, &quot;USD&quot;);_x000a__x0009__x0009_    assertEquals(0, account.getDeposits().size());_x000a__x0009__x0009_    _x000a__x0009_    // Em vez de try-catch, utilize assertThrows_x000a__x0009_    assertThrowsExactly(BusinessRuleException.class, () -&gt; {_x000a__x0009_    _x0009_throw new BusinessRuleException();_x000a__x0009_    });_x000a__x0009_    _x000a__x0009_    try {_x000a__x0009_    _x0009_new Deposit(account, -100.0, new Date(2024, 3, 19));_x000a__x0009_    } catch (Exception e) {_x000a__x0009_    _x0009__x000a__x0009_    }_x000a__x0009_}"/>
+    <s v="Changed Behavior"/>
+    <x v="0"/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F614FAE5-0CB0-47D9-8502-503333F55A20}" name="Tabela dinâmica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D5:G25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{594AEEFC-25B0-4D4F-9C24-DF7126F97A77}" name="Tabela dinâmica1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D5:G28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="1"/>
         <item x="2"/>
         <item x="0"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="16">
+      <items count="18">
         <item x="0"/>
         <item x="5"/>
         <item x="1"/>
@@ -1972,6 +2237,8 @@
         <item x="11"/>
         <item x="8"/>
         <item x="9"/>
+        <item x="15"/>
+        <item x="16"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1984,12 +2251,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="6">
+      <items count="3">
         <item x="1"/>
         <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item m="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1999,7 +2263,7 @@
     <field x="2"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="19">
+  <rowItems count="22">
     <i>
       <x/>
     </i>
@@ -2054,6 +2318,15 @@
     <i r="1">
       <x v="11"/>
     </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -2075,7 +2348,162 @@
   <dataFields count="1">
     <dataField name="Contagem de #" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="29">
+  <formats count="30">
+    <format dxfId="87">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="12"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="86">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="85">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="5"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="84">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="83">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="82">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="81">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="11"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="80">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="79">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="5">
+            <x v="1"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="13"/>
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="78">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="5">
+            <x v="1"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="13"/>
+            <x v="14"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="77">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="76">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
@@ -2083,10 +2511,10 @@
             <x v="1"/>
           </reference>
           <reference field="3" count="1">
-            <x v="12"/>
+            <x v="3"/>
           </reference>
           <reference field="12" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -2097,8 +2525,9 @@
           <reference field="2" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="3" count="1">
-            <x v="12"/>
+          <reference field="3" count="2">
+            <x v="6"/>
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -2109,11 +2538,12 @@
           <reference field="2" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="3" count="1">
-            <x v="5"/>
+          <reference field="3" count="2">
+            <x v="6"/>
+            <x v="10"/>
           </reference>
           <reference field="12" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -2122,10 +2552,10 @@
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="3" count="1">
-            <x v="5"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -2137,10 +2567,10 @@
             <x v="2"/>
           </reference>
           <reference field="3" count="1">
-            <x v="2"/>
+            <x v="0"/>
           </reference>
           <reference field="12" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -2151,8 +2581,9 @@
           <reference field="2" count="1" selected="0">
             <x v="2"/>
           </reference>
-          <reference field="3" count="1">
-            <x v="2"/>
+          <reference field="3" count="2">
+            <x v="4"/>
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -2163,23 +2594,27 @@
           <reference field="2" count="1" selected="0">
             <x v="2"/>
           </reference>
-          <reference field="3" count="1">
-            <x v="11"/>
+          <reference field="3" count="2">
+            <x v="4"/>
+            <x v="9"/>
           </reference>
           <reference field="12" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="69">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="3" count="1">
-            <x v="11"/>
+            <x v="10"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -2188,14 +2623,10 @@
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="5">
             <x v="1"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="13"/>
-            <x v="14"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -2204,14 +2635,10 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="5">
-            <x v="1"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="13"/>
-            <x v="14"/>
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="2"/>
           </reference>
           <reference field="12" count="1" selected="0">
             <x v="1"/>
@@ -2220,13 +2647,16 @@
       </pivotArea>
     </format>
     <format dxfId="66">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
           <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
             <x v="1"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -2235,10 +2665,10 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="3" count="1">
-            <x v="3"/>
+            <x v="2"/>
           </reference>
           <reference field="12" count="1" selected="0">
             <x v="1"/>
@@ -2247,14 +2677,16 @@
       </pivotArea>
     </format>
     <format dxfId="64">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
           <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="11"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
             <x v="1"/>
-          </reference>
-          <reference field="3" count="2">
-            <x v="6"/>
-            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -2265,13 +2697,10 @@
           <reference field="2" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="3" count="2">
+          <reference field="3" count="1">
             <x v="6"/>
-            <x v="10"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
+          </reference>
+          <reference field="12" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
@@ -2279,25 +2708,22 @@
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="3" count="1">
-            <x v="0"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="61">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="3" count="1">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -2306,175 +2732,34 @@
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="3" count="2">
-            <x v="4"/>
-            <x v="9"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="12"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="59">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="3" count="2">
-            <x v="4"/>
-            <x v="9"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="58">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="10"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
             <x v="1"/>
           </reference>
           <reference field="3" count="1">
-            <x v="10"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="2"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="35">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="2"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="34">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="2"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="33">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="11"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="6"/>
-          </reference>
-          <reference field="12" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="3"/>
           </reference>
           <reference field="3" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="5"/>
+            <x v="15"/>
           </reference>
         </references>
       </pivotArea>
@@ -2809,13 +3094,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004F840A-2008-460D-97A7-55FA6A5C860E}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3928,6 +4213,142 @@
       </c>
       <c r="N31" s="10"/>
     </row>
+    <row r="32" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>16</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>16</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>16</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="10"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N31" xr:uid="{004F840A-2008-460D-97A7-55FA6A5C860E}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3940,15 +4361,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938BAD7A-BBC2-4435-A13D-1E0BAF5E7162}">
-  <dimension ref="D5:G25"/>
+  <dimension ref="D5:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -4089,11 +4510,11 @@
       </c>
     </row>
     <row r="16" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="24">
+      <c r="E16" s="25"/>
+      <c r="F16" s="25">
         <v>2</v>
       </c>
       <c r="G16" s="22">
@@ -4159,7 +4580,7 @@
       <c r="E21" s="23">
         <v>1</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="26">
         <v>1</v>
       </c>
       <c r="G21" s="22">
@@ -4206,16 +4627,52 @@
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22">
+        <v>4</v>
+      </c>
+      <c r="G25" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="24">
+        <v>2</v>
+      </c>
+      <c r="G26" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="24">
+        <v>2</v>
+      </c>
+      <c r="G27" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E28" s="22">
         <v>3</v>
       </c>
-      <c r="F25" s="22">
-        <v>27</v>
-      </c>
-      <c r="G25" s="22">
-        <v>30</v>
+      <c r="F28" s="22">
+        <v>31</v>
+      </c>
+      <c r="G28" s="22">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
